--- a/files/test_files/Overall/Composicoes/composicoes_composition_teste.xlsx
+++ b/files/test_files/Overall/Composicoes/composicoes_composition_teste.xlsx
@@ -677,16 +677,16 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>9936.588112500001</v>
+        <v>101.325</v>
       </c>
       <c r="D3">
-        <v>134907.7581017592</v>
+        <v>318.4952793473608</v>
       </c>
       <c r="E3">
-        <v>3514088.075655271</v>
+        <v>8296.190516062403</v>
       </c>
       <c r="F3">
-        <v>1.590786763863847</v>
+        <v>1.312672665699904</v>
       </c>
       <c r="G3">
         <v>26.04808</v>
@@ -701,7 +701,7 @@
         <v>173.0671113313479</v>
       </c>
       <c r="K3">
-        <v>3025.885112537143</v>
+        <v>4200.383205386872</v>
       </c>
       <c r="L3">
         <v>4200.16193524045</v>
@@ -710,19 +710,19 @@
         <v>0.6636106088905102</v>
       </c>
       <c r="N3">
-        <v>774.839307540194</v>
+        <v>1.32678329430447</v>
       </c>
       <c r="O3">
         <v>1.386509054431434</v>
       </c>
       <c r="P3">
-        <v>33.36810169136437</v>
+        <v>33.29874407252431</v>
       </c>
       <c r="Q3">
         <v>33.64915788153163</v>
       </c>
       <c r="R3">
-        <v>0.1670631120265793</v>
+        <v>0.9925954477440543</v>
       </c>
       <c r="S3">
         <v>0.9920264880486497</v>
@@ -731,7 +731,7 @@
         <v>163.8318774564127</v>
       </c>
       <c r="U3">
-        <v>1177.239333887838</v>
+        <v>2.741794420291908</v>
       </c>
       <c r="V3">
         <v>2.963064656010855</v>
@@ -743,7 +743,7 @@
         <v>18.01852792136104</v>
       </c>
       <c r="Y3">
-        <v>18.09164673579438</v>
+        <v>18.01867468422484</v>
       </c>
       <c r="Z3">
         <v>-1</v>

--- a/files/test_files/Overall/Composicoes/composicoes_composition_teste.xlsx
+++ b/files/test_files/Overall/Composicoes/composicoes_composition_teste.xlsx
@@ -758,10 +758,10 @@
         <v>-1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF3">
         <v>-1</v>
